--- a/test/project/xlsx/TestData.xlsx
+++ b/test/project/xlsx/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\GameDataManager\test\project\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2072B897-6FAC-4F53-9F30-2D568635EDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A3D7D2-6989-44B3-ABCD-45AB6A740600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21525" windowHeight="11820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="3315" windowWidth="21525" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnOrient" sheetId="1" r:id="rId1"/>
     <sheet name="Csv" sheetId="2" r:id="rId2"/>
     <sheet name="Array" sheetId="3" r:id="rId3"/>
+    <sheet name="Object" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,84 +28,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
-  <si>
-    <t>DayNight</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>$Name</t>
+  </si>
+  <si>
+    <t>이 데이터는</t>
+  </si>
+  <si>
+    <t>Csv로 출력됩니다</t>
+  </si>
+  <si>
+    <t>Attributes/1</t>
+  </si>
+  <si>
+    <t>Attributes/2</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Dex</t>
+  </si>
+  <si>
+    <t>Crit</t>
+  </si>
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>성명</t>
+  </si>
+  <si>
+    <t>Power;2</t>
+  </si>
+  <si>
+    <t>Speed;15</t>
+  </si>
+  <si>
+    <t>Knowledge;6</t>
+  </si>
+  <si>
+    <t>Hammer;11</t>
+  </si>
+  <si>
+    <t>Axe;7</t>
+  </si>
+  <si>
+    <t>Sepciality::array</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Attributes/Stat</t>
+  </si>
+  <si>
+    <t>Attributes/Value</t>
+  </si>
+  <si>
+    <t>Speciality/Type</t>
+  </si>
+  <si>
+    <t>Speciality/Value</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Here</t>
+  </si>
+  <si>
+    <t>Put Your Comments</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>If there is no column name, it is treated as a comment</t>
+  </si>
+  <si>
+    <t>GMT+0</t>
+  </si>
+  <si>
+    <t>Sun/Rise</t>
+  </si>
+  <si>
+    <t>Sun/Set</t>
+  </si>
+  <si>
+    <t>SoundProfile/MasterVolume</t>
+  </si>
+  <si>
+    <t>SoundProfile/DialogueVolume</t>
+  </si>
+  <si>
+    <t>ProfileSpecificGameProfile/Sensitivity</t>
+  </si>
+  <si>
+    <t>ProfileSpecificGameProfile/Invert/x</t>
+  </si>
+  <si>
+    <t>ProfileSpecificGameProfile/Invert/y</t>
+  </si>
+  <si>
+    <t>Nested/Value1</t>
+  </si>
+  <si>
+    <t>Nested/Value2</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Gold</t>
   </si>
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Something</t>
-  </si>
-  <si>
-    <t>GDT</t>
-  </si>
-  <si>
-    <t>so</t>
-  </si>
-  <si>
-    <t>주석을</t>
-  </si>
-  <si>
-    <t>이렇게</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>$Name</t>
-  </si>
-  <si>
-    <t>이 데이터는</t>
-  </si>
-  <si>
-    <t>Csv로 출력됩니다</t>
-  </si>
-  <si>
-    <t>Attributes/1</t>
-  </si>
-  <si>
-    <t>Attributes/2</t>
-  </si>
-  <si>
-    <t>Str</t>
-  </si>
-  <si>
-    <t>Dex</t>
-  </si>
-  <si>
-    <t>Crit</t>
-  </si>
-  <si>
-    <t>제목</t>
-  </si>
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>성명</t>
-  </si>
-  <si>
-    <t>Power;2</t>
-  </si>
-  <si>
-    <t>Speed;15</t>
-  </si>
-  <si>
-    <t>Knowledge;6</t>
-  </si>
-  <si>
-    <t>Hammer;11</t>
-  </si>
-  <si>
-    <t>Axe;7</t>
-  </si>
-  <si>
-    <t>Sepciality::array</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Grape</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Blue</t>
   </si>
 </sst>
 </file>
@@ -451,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,32 +543,77 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -499,10 +623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EAB8E6-F619-4882-BEE1-B71212AD7B3B}">
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,88 +634,124 @@
     <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -602,10 +762,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719D7DFF-0299-4AC5-8526-53C32CCDBFB9}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,98 +773,214 @@
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D56F6F-7A7E-404D-BE59-8083676EA559}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/project/xlsx/TestData.xlsx
+++ b/test/project/xlsx/TestData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\GameDataManager\test\project\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A3D7D2-6989-44B3-ABCD-45AB6A740600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94977FE-CB07-4DB4-AED7-3E7F8CCA7B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="3315" windowWidth="21525" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5715" yWindow="4380" windowWidth="21525" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnOrient" sheetId="1" r:id="rId1"/>
-    <sheet name="Csv" sheetId="2" r:id="rId2"/>
-    <sheet name="Array" sheetId="3" r:id="rId3"/>
-    <sheet name="Object" sheetId="4" r:id="rId4"/>
+    <sheet name="Array" sheetId="3" r:id="rId2"/>
+    <sheet name="Object" sheetId="4" r:id="rId3"/>
+    <sheet name="Csv" sheetId="2" r:id="rId4"/>
+    <sheet name="Tsv" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>Key</t>
   </si>
@@ -36,12 +37,6 @@
     <t>$Name</t>
   </si>
   <si>
-    <t>이 데이터는</t>
-  </si>
-  <si>
-    <t>Csv로 출력됩니다</t>
-  </si>
-  <si>
     <t>Attributes/1</t>
   </si>
   <si>
@@ -57,15 +52,6 @@
     <t>Crit</t>
   </si>
   <si>
-    <t>제목</t>
-  </si>
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>성명</t>
-  </si>
-  <si>
     <t>Power;2</t>
   </si>
   <si>
@@ -84,9 +70,6 @@
     <t>Sepciality::array</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Attributes/Stat</t>
   </si>
   <si>
@@ -184,6 +167,42 @@
   </si>
   <si>
     <t>Blue</t>
+  </si>
+  <si>
+    <t>This data</t>
+  </si>
+  <si>
+    <t>Will be exported as CSV</t>
+  </si>
+  <si>
+    <t>array and object</t>
+  </si>
+  <si>
+    <t>will be concanated as single string</t>
+  </si>
+  <si>
+    <t>due to its limitation</t>
+  </si>
+  <si>
+    <t>1;2;3</t>
+  </si>
+  <si>
+    <t>4;5;6</t>
+  </si>
+  <si>
+    <t>7;8;9</t>
+  </si>
+  <si>
+    <t>10;11;12</t>
+  </si>
+  <si>
+    <t>13;14;15</t>
+  </si>
+  <si>
+    <t>Numbers::array{number}</t>
+  </si>
+  <si>
+    <t>Integers::array{integer}</t>
   </si>
 </sst>
 </file>
@@ -543,21 +562,21 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -565,7 +584,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>18</v>
@@ -573,12 +592,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>90</v>
@@ -586,7 +605,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -594,7 +613,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -602,7 +621,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -610,7 +629,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -622,244 +641,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EAB8E6-F619-4882-BEE1-B71212AD7B3B}">
-  <dimension ref="B1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719D7DFF-0299-4AC5-8526-53C32CCDBFB9}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719D7DFF-0299-4AC5-8526-53C32CCDBFB9}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -868,7 +781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D56F6F-7A7E-404D-BE59-8083676EA559}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -883,16 +796,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -900,13 +813,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -917,13 +830,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -934,13 +847,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -951,13 +864,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>11</v>
@@ -968,13 +881,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -983,4 +896,282 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EAB8E6-F619-4882-BEE1-B71212AD7B3B}">
+  <dimension ref="B1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30314824-60FE-47C5-8664-6509A18B7C9D}">
+  <dimension ref="B1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>